--- a/Documentation/FINAL TESTING.xlsx
+++ b/Documentation/FINAL TESTING.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="257">
   <si>
     <t xml:space="preserve">Category </t>
   </si>
@@ -489,9 +489,6 @@
     <t xml:space="preserve"> check for error message saying, this is not the appropriate field to drag this box into in &gt;5 sec</t>
   </si>
   <si>
-    <t>Priority</t>
-  </si>
-  <si>
     <t>Requirement</t>
   </si>
   <si>
@@ -793,6 +790,12 @@
   </si>
   <si>
     <t>R.30.4</t>
+  </si>
+  <si>
+    <t>Ethan</t>
+  </si>
+  <si>
+    <t>Priority (1 is highest 3 is lowest)</t>
   </si>
 </sst>
 </file>
@@ -1272,8 +1275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A114" sqref="A114"/>
+    <sheetView tabSelected="1" topLeftCell="C110" workbookViewId="0">
+      <selection activeCell="G104" sqref="G104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1284,6 +1287,7 @@
     <col min="4" max="4" width="22.140625" customWidth="1"/>
     <col min="5" max="5" width="25.28515625" customWidth="1"/>
     <col min="6" max="6" width="21.42578125" customWidth="1"/>
+    <col min="7" max="7" width="31.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1291,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>1</v>
@@ -1306,7 +1310,7 @@
         <v>108</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>154</v>
+        <v>256</v>
       </c>
       <c r="H1" s="9"/>
       <c r="I1" s="2"/>
@@ -1327,7 +1331,7 @@
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>30</v>
@@ -1344,10 +1348,10 @@
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>134</v>
@@ -1374,10 +1378,10 @@
     <row r="6" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>134</v>
@@ -1391,10 +1395,10 @@
     <row r="7" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>134</v>
@@ -1421,7 +1425,7 @@
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>32</v>
@@ -1438,10 +1442,10 @@
     <row r="10" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>135</v>
@@ -1452,14 +1456,16 @@
       <c r="F10" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="G10" s="9"/>
+      <c r="G10" s="9">
+        <v>3</v>
+      </c>
       <c r="H10" s="9"/>
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>31</v>
@@ -1489,7 +1495,7 @@
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>32</v>
@@ -1506,10 +1512,10 @@
     <row r="14" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>135</v>
@@ -1520,17 +1526,19 @@
       <c r="F14" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="G14" s="9"/>
+      <c r="G14" s="9">
+        <v>3</v>
+      </c>
       <c r="H14" s="9"/>
       <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>134</v>
@@ -1557,7 +1565,7 @@
     <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
       <c r="B17" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>33</v>
@@ -1574,7 +1582,7 @@
     <row r="18" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>34</v>
@@ -1591,7 +1599,7 @@
     <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>35</v>
@@ -1621,7 +1629,7 @@
     <row r="21" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>37</v>
@@ -1632,15 +1640,19 @@
       <c r="E21" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
+      <c r="F21" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="G21" s="9">
+        <v>3</v>
+      </c>
       <c r="H21" s="9"/>
       <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="B22" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>38</v>
@@ -1651,8 +1663,12 @@
       <c r="E22" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
+      <c r="F22" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="G22" s="9">
+        <v>3</v>
+      </c>
       <c r="H22" s="9"/>
       <c r="I22" s="3"/>
     </row>
@@ -1672,7 +1688,7 @@
     <row r="24" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
       <c r="B24" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>39</v>
@@ -1683,15 +1699,19 @@
       <c r="E24" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
+      <c r="F24" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="G24" s="9">
+        <v>3</v>
+      </c>
       <c r="H24" s="9"/>
       <c r="I24" s="3"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
       <c r="B25" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>38</v>
@@ -1702,8 +1722,12 @@
       <c r="E25" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
+      <c r="F25" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="G25" s="9">
+        <v>3</v>
+      </c>
       <c r="H25" s="9"/>
       <c r="I25" s="3"/>
     </row>
@@ -1723,7 +1747,7 @@
     <row r="27" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>40</v>
@@ -1734,15 +1758,19 @@
       <c r="E27" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
+      <c r="F27" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="G27" s="9">
+        <v>1</v>
+      </c>
       <c r="H27" s="9"/>
       <c r="I27" s="3"/>
     </row>
     <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="B28" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>41</v>
@@ -1753,8 +1781,12 @@
       <c r="E28" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
+      <c r="F28" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="G28" s="9">
+        <v>1</v>
+      </c>
       <c r="H28" s="9"/>
       <c r="I28" s="3"/>
     </row>
@@ -1774,7 +1806,7 @@
     <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
       <c r="B30" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>42</v>
@@ -1785,8 +1817,12 @@
       <c r="E30" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
+      <c r="F30" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="G30" s="9">
+        <v>1</v>
+      </c>
       <c r="H30" s="9"/>
       <c r="I30" s="3"/>
     </row>
@@ -1806,7 +1842,7 @@
     <row r="32" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>43</v>
@@ -1817,15 +1853,19 @@
       <c r="E32" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
+      <c r="F32" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="G32" s="9">
+        <v>2</v>
+      </c>
       <c r="H32" s="9"/>
       <c r="I32" s="3"/>
     </row>
     <row r="33" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
       <c r="B33" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>47</v>
@@ -1842,7 +1882,7 @@
     <row r="34" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
       <c r="B34" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>97</v>
@@ -1859,7 +1899,7 @@
     <row r="35" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
       <c r="B35" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>98</v>
@@ -1889,7 +1929,7 @@
     <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
       <c r="B37" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>44</v>
@@ -1919,7 +1959,7 @@
     <row r="39" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
       <c r="B39" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>99</v>
@@ -1930,15 +1970,19 @@
       <c r="E39" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
+      <c r="F39" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="G39" s="9">
+        <v>3</v>
+      </c>
       <c r="H39" s="9"/>
       <c r="I39" s="3"/>
     </row>
     <row r="40" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A40" s="9"/>
       <c r="B40" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>100</v>
@@ -1949,15 +1993,19 @@
       <c r="E40" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
+      <c r="F40" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="G40" s="9">
+        <v>3</v>
+      </c>
       <c r="H40" s="9"/>
       <c r="I40" s="3"/>
     </row>
     <row r="41" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A41" s="9"/>
       <c r="B41" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C41" s="10" t="s">
         <v>102</v>
@@ -1968,15 +2016,19 @@
       <c r="E41" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
+      <c r="F41" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="G41" s="9">
+        <v>3</v>
+      </c>
       <c r="H41" s="9"/>
       <c r="I41" s="3"/>
     </row>
     <row r="42" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A42" s="9"/>
       <c r="B42" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C42" s="10" t="s">
         <v>101</v>
@@ -1987,15 +2039,19 @@
       <c r="E42" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
+      <c r="F42" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="G42" s="9">
+        <v>3</v>
+      </c>
       <c r="H42" s="9"/>
       <c r="I42" s="3"/>
     </row>
     <row r="43" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A43" s="9"/>
       <c r="B43" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>103</v>
@@ -2025,7 +2081,7 @@
     <row r="45" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A45" s="9"/>
       <c r="B45" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C45" s="10" t="s">
         <v>48</v>
@@ -2055,7 +2111,7 @@
     <row r="47" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A47" s="9"/>
       <c r="B47" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C47" s="10" t="s">
         <v>49</v>
@@ -2072,7 +2128,7 @@
     <row r="48" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A48" s="9"/>
       <c r="B48" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C48" s="10" t="s">
         <v>50</v>
@@ -2089,7 +2145,7 @@
     <row r="49" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A49" s="9"/>
       <c r="B49" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C49" s="10" t="s">
         <v>51</v>
@@ -2106,7 +2162,7 @@
     <row r="50" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A50" s="9"/>
       <c r="B50" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C50" s="10" t="s">
         <v>52</v>
@@ -2136,7 +2192,7 @@
     <row r="52" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="9"/>
       <c r="B52" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C52" s="10" t="s">
         <v>53</v>
@@ -2153,7 +2209,7 @@
     <row r="53" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A53" s="9"/>
       <c r="B53" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C53" s="10" t="s">
         <v>54</v>
@@ -2183,7 +2239,7 @@
     <row r="55" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A55" s="9"/>
       <c r="B55" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>55</v>
@@ -2200,7 +2256,7 @@
     <row r="56" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="9"/>
       <c r="B56" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C56" s="10" t="s">
         <v>104</v>
@@ -2217,7 +2273,7 @@
     <row r="57" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="9"/>
       <c r="B57" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C57" s="10" t="s">
         <v>56</v>
@@ -2247,7 +2303,7 @@
     <row r="59" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A59" s="9"/>
       <c r="B59" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C59" s="10" t="s">
         <v>57</v>
@@ -2264,7 +2320,7 @@
     <row r="60" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="9"/>
       <c r="B60" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C60" s="10" t="s">
         <v>148</v>
@@ -2281,7 +2337,7 @@
     <row r="61" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="9"/>
       <c r="B61" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C61" s="10" t="s">
         <v>58</v>
@@ -2311,7 +2367,7 @@
     <row r="63" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A63" s="9"/>
       <c r="B63" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C63" s="10" t="s">
         <v>59</v>
@@ -2328,7 +2384,7 @@
     <row r="64" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A64" s="9"/>
       <c r="B64" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C64" s="10" t="s">
         <v>60</v>
@@ -2358,7 +2414,7 @@
     <row r="66" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A66" s="9"/>
       <c r="B66" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C66" s="10" t="s">
         <v>61</v>
@@ -2375,7 +2431,7 @@
     <row r="67" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="9"/>
       <c r="B67" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C67" s="10" t="s">
         <v>62</v>
@@ -2405,7 +2461,7 @@
     <row r="69" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A69" s="9"/>
       <c r="B69" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C69" s="10" t="s">
         <v>63</v>
@@ -2422,7 +2478,7 @@
     <row r="70" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="9"/>
       <c r="B70" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C70" s="10" t="s">
         <v>64</v>
@@ -2439,7 +2495,7 @@
     <row r="71" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="9"/>
       <c r="B71" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C71" s="10" t="s">
         <v>65</v>
@@ -2456,7 +2512,7 @@
     <row r="72" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="18"/>
       <c r="B72" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C72" s="10" t="s">
         <v>66</v>
@@ -2473,7 +2529,7 @@
     <row r="73" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="18"/>
       <c r="B73" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C73" s="10" t="s">
         <v>67</v>
@@ -2503,7 +2559,7 @@
     <row r="75" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A75" s="9"/>
       <c r="B75" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C75" s="10" t="s">
         <v>68</v>
@@ -2520,7 +2576,7 @@
     <row r="76" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="9"/>
       <c r="B76" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C76" s="10" t="s">
         <v>64</v>
@@ -2537,7 +2593,7 @@
     <row r="77" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="9"/>
       <c r="B77" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C77" s="10" t="s">
         <v>65</v>
@@ -2554,7 +2610,7 @@
     <row r="78" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="9"/>
       <c r="B78" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C78" s="10" t="s">
         <v>66</v>
@@ -2571,7 +2627,7 @@
     <row r="79" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="9"/>
       <c r="B79" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C79" s="10" t="s">
         <v>69</v>
@@ -2588,7 +2644,7 @@
     <row r="80" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="9"/>
       <c r="B80" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C80" s="10" t="s">
         <v>70</v>
@@ -2605,7 +2661,7 @@
     <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="9"/>
       <c r="B81" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C81" s="10" t="s">
         <v>71</v>
@@ -2622,7 +2678,7 @@
     <row r="82" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="9"/>
       <c r="B82" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C82" s="10" t="s">
         <v>72</v>
@@ -2639,7 +2695,7 @@
     <row r="83" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="9"/>
       <c r="B83" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C83" s="10" t="s">
         <v>73</v>
@@ -2656,7 +2712,7 @@
     <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="9"/>
       <c r="B84" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C84" s="10" t="s">
         <v>74</v>
@@ -2686,7 +2742,7 @@
     <row r="86" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A86" s="9"/>
       <c r="B86" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C86" s="10" t="s">
         <v>105</v>
@@ -2703,7 +2759,7 @@
     <row r="87" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A87" s="9"/>
       <c r="B87" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C87" s="10" t="s">
         <v>106</v>
@@ -2720,7 +2776,7 @@
     <row r="88" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A88" s="9"/>
       <c r="B88" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C88" s="10" t="s">
         <v>107</v>
@@ -2750,7 +2806,7 @@
     <row r="90" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="9"/>
       <c r="B90" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C90" s="10" t="s">
         <v>75</v>
@@ -2767,7 +2823,7 @@
     <row r="91" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A91" s="9"/>
       <c r="B91" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C91" s="10" t="s">
         <v>76</v>
@@ -2784,7 +2840,7 @@
     <row r="92" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A92" s="9"/>
       <c r="B92" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C92" s="10" t="s">
         <v>77</v>
@@ -2814,7 +2870,7 @@
     <row r="94" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A94" s="9"/>
       <c r="B94" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C94" s="10" t="s">
         <v>78</v>
@@ -2831,7 +2887,7 @@
     <row r="95" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A95" s="9"/>
       <c r="B95" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C95" s="10" t="s">
         <v>79</v>
@@ -2848,7 +2904,7 @@
     <row r="96" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A96" s="9"/>
       <c r="B96" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C96" s="10" t="s">
         <v>80</v>
@@ -2865,7 +2921,7 @@
     <row r="97" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="9"/>
       <c r="B97" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C97" s="10" t="s">
         <v>81</v>
@@ -2895,12 +2951,12 @@
     <row r="99" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="9"/>
       <c r="B99" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C99" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="D99" s="13" t="s">
+      <c r="D99" s="12" t="s">
         <v>134</v>
       </c>
       <c r="E99" s="19"/>
@@ -2912,7 +2968,7 @@
     <row r="100" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A100" s="9"/>
       <c r="B100" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C100" s="10" t="s">
         <v>83</v>
@@ -2929,7 +2985,7 @@
     <row r="101" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A101" s="9"/>
       <c r="B101" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C101" s="10" t="s">
         <v>84</v>
@@ -2940,15 +2996,19 @@
       <c r="E101" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="F101" s="9"/>
-      <c r="G101" s="9"/>
+      <c r="F101" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="G101" s="9">
+        <v>2</v>
+      </c>
       <c r="H101" s="9"/>
       <c r="I101" s="1"/>
     </row>
     <row r="102" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A102" s="9"/>
       <c r="B102" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C102" s="10" t="s">
         <v>85</v>
@@ -2965,7 +3025,7 @@
     <row r="103" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A103" s="9"/>
       <c r="B103" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C103" s="10" t="s">
         <v>86</v>
@@ -2982,7 +3042,7 @@
     <row r="104" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A104" s="9"/>
       <c r="B104" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C104" s="10" t="s">
         <v>87</v>
@@ -2993,15 +3053,19 @@
       <c r="E104" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="F104" s="9"/>
-      <c r="G104" s="9"/>
+      <c r="F104" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="G104" s="9">
+        <v>2</v>
+      </c>
       <c r="H104" s="9"/>
       <c r="I104" s="1"/>
     </row>
     <row r="105" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="9"/>
       <c r="B105" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C105" s="10" t="s">
         <v>81</v>
@@ -3031,7 +3095,7 @@
     <row r="107" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A107" s="9"/>
       <c r="B107" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C107" s="10" t="s">
         <v>88</v>
@@ -3061,7 +3125,7 @@
     <row r="109" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="9"/>
       <c r="B109" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C109" s="10" t="s">
         <v>89</v>
@@ -3078,7 +3142,7 @@
     <row r="110" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A110" s="9"/>
       <c r="B110" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C110" s="10" t="s">
         <v>90</v>
@@ -3095,7 +3159,7 @@
     <row r="111" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="9"/>
       <c r="B111" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C111" s="10" t="s">
         <v>91</v>
@@ -3112,7 +3176,7 @@
     <row r="112" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="9"/>
       <c r="B112" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C112" s="10" t="s">
         <v>92</v>
@@ -3142,7 +3206,7 @@
     <row r="114" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A114" s="9"/>
       <c r="B114" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C114" s="10" t="s">
         <v>93</v>
@@ -3172,7 +3236,7 @@
     <row r="116" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A116" s="9"/>
       <c r="B116" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C116" s="10" t="s">
         <v>94</v>
@@ -3189,7 +3253,7 @@
     <row r="117" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="9"/>
       <c r="B117" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C117" s="10" t="s">
         <v>95</v>
@@ -3206,7 +3270,7 @@
     <row r="118" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A118" s="9"/>
       <c r="B118" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C118" s="10" t="s">
         <v>96</v>
@@ -3236,7 +3300,7 @@
     <row r="120" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="9"/>
       <c r="B120" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C120" s="10" t="s">
         <v>152</v>
@@ -3253,7 +3317,7 @@
     <row r="121" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A121" s="9"/>
       <c r="B121" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C121" s="10" t="s">
         <v>153</v>
@@ -3270,10 +3334,10 @@
     <row r="122" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A122" s="9"/>
       <c r="B122" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D122" s="15" t="s">
         <v>147</v>
@@ -3287,10 +3351,10 @@
     <row r="123" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="9"/>
       <c r="B123" s="21" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C123" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D123" s="15" t="s">
         <v>147</v>

--- a/Documentation/FINAL TESTING.xlsx
+++ b/Documentation/FINAL TESTING.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="262">
   <si>
     <t xml:space="preserve">Category </t>
   </si>
@@ -796,6 +796,21 @@
   </si>
   <si>
     <t>Priority (1 is highest 3 is lowest)</t>
+  </si>
+  <si>
+    <t>About Page</t>
+  </si>
+  <si>
+    <t>R.31.1</t>
+  </si>
+  <si>
+    <t>R.31.2</t>
+  </si>
+  <si>
+    <t>make sure about page takes &gt;5 sec to load</t>
+  </si>
+  <si>
+    <t>check that links at bottom go to correct source in &gt;5 sec</t>
   </si>
 </sst>
 </file>
@@ -862,7 +877,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -899,15 +914,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -924,7 +930,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -981,18 +987,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1273,10 +1278,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I124"/>
+  <dimension ref="A1:I126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C110" workbookViewId="0">
-      <selection activeCell="G104" sqref="G104"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="D125" sqref="D125:D126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3350,10 +3355,10 @@
     </row>
     <row r="123" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="9"/>
-      <c r="B123" s="21" t="s">
+      <c r="B123" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="C123" s="22" t="s">
+      <c r="C123" s="21" t="s">
         <v>162</v>
       </c>
       <c r="D123" s="15" t="s">
@@ -3366,8 +3371,51 @@
       <c r="I123" s="5"/>
     </row>
     <row r="124" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B124" s="23"/>
-      <c r="C124" s="20"/>
+      <c r="A124" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="B124" s="9"/>
+      <c r="C124" s="10"/>
+      <c r="D124" s="11"/>
+      <c r="E124" s="9"/>
+      <c r="F124" s="9"/>
+      <c r="G124" s="9"/>
+      <c r="H124" s="9"/>
+      <c r="I124" s="5"/>
+    </row>
+    <row r="125" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A125" s="22"/>
+      <c r="B125" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="C125" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="D125" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="E125" s="22"/>
+      <c r="F125" s="22"/>
+      <c r="G125" s="22"/>
+      <c r="H125" s="22"/>
+      <c r="I125" s="22"/>
+    </row>
+    <row r="126" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A126" s="22"/>
+      <c r="B126" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="C126" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="D126" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="E126" s="22"/>
+      <c r="F126" s="22"/>
+      <c r="G126" s="22"/>
+      <c r="H126" s="22"/>
+      <c r="I126" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/FINAL TESTING.xlsx
+++ b/Documentation/FINAL TESTING.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="256">
   <si>
     <t xml:space="preserve">Category </t>
   </si>
@@ -75,12 +75,6 @@
     <t>Re-Enter Password Field on Create Account page</t>
   </si>
   <si>
-    <t xml:space="preserve"> Error Message for Email </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Error Message for Password </t>
-  </si>
-  <si>
     <t xml:space="preserve">Forgot Password Button </t>
   </si>
   <si>
@@ -192,18 +186,6 @@
     <t xml:space="preserve"> try entering different password from above field and see if it accepts</t>
   </si>
   <si>
-    <t xml:space="preserve"> check that error message pops up if logging in with invalid email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">check error message appears below all fields </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> check that error message pops up if logging in with invalid password </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> check error message appears below all fields </t>
-  </si>
-  <si>
     <t xml:space="preserve"> check there is a forgot password button on sign in page</t>
   </si>
   <si>
@@ -318,9 +300,6 @@
     <t xml:space="preserve"> check there is a close button on every instructions page</t>
   </si>
   <si>
-    <t xml:space="preserve"> check if invalid/ no email error says what’s your email address? </t>
-  </si>
-  <si>
     <t xml:space="preserve"> check if invalid password error says password must be at least 8 characters</t>
   </si>
   <si>
@@ -339,9 +318,6 @@
     <t>check cursor begins in the new password field of the new password page</t>
   </si>
   <si>
-    <t xml:space="preserve"> check error says the email is not registered</t>
-  </si>
-  <si>
     <t>game options must load the most previously saved version of each game the user has programmed</t>
   </si>
   <si>
@@ -471,9 +447,6 @@
     <t>can not test</t>
   </si>
   <si>
-    <t xml:space="preserve">check error says the password is incorrect </t>
-  </si>
-  <si>
     <t>if you don’t know, page gives no notification that anything is wrong, it just wont do anything if you click save changes</t>
   </si>
   <si>
@@ -633,18 +606,12 @@
     <t>R.16.2</t>
   </si>
   <si>
-    <t>R.16.3</t>
-  </si>
-  <si>
     <t>R.17.1</t>
   </si>
   <si>
     <t>R.17.2</t>
   </si>
   <si>
-    <t>R.17.3</t>
-  </si>
-  <si>
     <t>R.18.1</t>
   </si>
   <si>
@@ -666,12 +633,6 @@
     <t>R.20.3</t>
   </si>
   <si>
-    <t>R.20.4</t>
-  </si>
-  <si>
-    <t>R.20.5</t>
-  </si>
-  <si>
     <t>R.21.1</t>
   </si>
   <si>
@@ -681,27 +642,6 @@
     <t>R.21.3</t>
   </si>
   <si>
-    <t>R.21.4</t>
-  </si>
-  <si>
-    <t>R.21.5</t>
-  </si>
-  <si>
-    <t>R.21.6</t>
-  </si>
-  <si>
-    <t>R.21.7</t>
-  </si>
-  <si>
-    <t>R.21.8</t>
-  </si>
-  <si>
-    <t>R.21.9</t>
-  </si>
-  <si>
-    <t>R.21.10</t>
-  </si>
-  <si>
     <t>R.22.1</t>
   </si>
   <si>
@@ -723,15 +663,6 @@
     <t>R.24.1</t>
   </si>
   <si>
-    <t>R.24.2</t>
-  </si>
-  <si>
-    <t>R.24.3</t>
-  </si>
-  <si>
-    <t>R.24.4</t>
-  </si>
-  <si>
     <t>R.25.1</t>
   </si>
   <si>
@@ -744,15 +675,6 @@
     <t>R.25.4</t>
   </si>
   <si>
-    <t>R.25.5</t>
-  </si>
-  <si>
-    <t>R.25.6</t>
-  </si>
-  <si>
-    <t>R.25.7</t>
-  </si>
-  <si>
     <t>R.26.1</t>
   </si>
   <si>
@@ -765,9 +687,6 @@
     <t>R.27.3</t>
   </si>
   <si>
-    <t>R.27.4</t>
-  </si>
-  <si>
     <t>R.28.1</t>
   </si>
   <si>
@@ -777,21 +696,6 @@
     <t>R.29.2</t>
   </si>
   <si>
-    <t>R.29.3</t>
-  </si>
-  <si>
-    <t>R.30.1</t>
-  </si>
-  <si>
-    <t>R.30.2</t>
-  </si>
-  <si>
-    <t>R.30.3</t>
-  </si>
-  <si>
-    <t>R.30.4</t>
-  </si>
-  <si>
     <t>Ethan</t>
   </si>
   <si>
@@ -801,16 +705,94 @@
     <t>About Page</t>
   </si>
   <si>
-    <t>R.31.1</t>
-  </si>
-  <si>
-    <t>R.31.2</t>
-  </si>
-  <si>
     <t>make sure about page takes &gt;5 sec to load</t>
   </si>
   <si>
     <t>check that links at bottom go to correct source in &gt;5 sec</t>
+  </si>
+  <si>
+    <t>R.18.3</t>
+  </si>
+  <si>
+    <t>R.18.4</t>
+  </si>
+  <si>
+    <t>R.18.5</t>
+  </si>
+  <si>
+    <t>R.19.3</t>
+  </si>
+  <si>
+    <t>R.19.4</t>
+  </si>
+  <si>
+    <t>R.19.5</t>
+  </si>
+  <si>
+    <t>R.19.6</t>
+  </si>
+  <si>
+    <t>R.19.7</t>
+  </si>
+  <si>
+    <t>R.19.8</t>
+  </si>
+  <si>
+    <t>R.19.9</t>
+  </si>
+  <si>
+    <t>R.19.10</t>
+  </si>
+  <si>
+    <t>R.22.4</t>
+  </si>
+  <si>
+    <t>R.23.4</t>
+  </si>
+  <si>
+    <t>R.23.5</t>
+  </si>
+  <si>
+    <t>R.23.6</t>
+  </si>
+  <si>
+    <t>R.23.7</t>
+  </si>
+  <si>
+    <t>R.28.2</t>
+  </si>
+  <si>
+    <t>R.28.3</t>
+  </si>
+  <si>
+    <t>R.28.4</t>
+  </si>
+  <si>
+    <t>R.10.5</t>
+  </si>
+  <si>
+    <t>R.10.6</t>
+  </si>
+  <si>
+    <t>R.10.7</t>
+  </si>
+  <si>
+    <t>R.10.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check if invalid/ no email error says what’s your email address? </t>
+  </si>
+  <si>
+    <t>check if it says doesn’t look like a valid email</t>
+  </si>
+  <si>
+    <t>check if it says email must be less than 50 characters</t>
+  </si>
+  <si>
+    <t>check if it says password must be less than 25 characters</t>
+  </si>
+  <si>
+    <t>check if it says password must be at least 8 characters</t>
   </si>
 </sst>
 </file>
@@ -930,7 +912,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -985,9 +967,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1278,10 +1257,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I126"/>
+  <dimension ref="A1:I124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="D125" sqref="D125:D126"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1300,7 +1279,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>1</v>
@@ -1309,13 +1288,13 @@
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="H1" s="9"/>
       <c r="I1" s="2"/>
@@ -1336,13 +1315,13 @@
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="9" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="9"/>
@@ -1353,13 +1332,13 @@
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="9" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="9"/>
@@ -1383,13 +1362,13 @@
     <row r="6" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="9" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="9"/>
@@ -1400,13 +1379,13 @@
     <row r="7" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="9" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="9"/>
@@ -1430,13 +1409,13 @@
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="9" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="9"/>
@@ -1447,19 +1426,19 @@
     <row r="10" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="9" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="G10" s="9">
         <v>3</v>
@@ -1470,13 +1449,13 @@
     <row r="11" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="9" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="9"/>
@@ -1500,13 +1479,13 @@
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="9" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E13" s="11"/>
       <c r="F13" s="9"/>
@@ -1517,19 +1496,19 @@
     <row r="14" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="9" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="G14" s="9">
         <v>3</v>
@@ -1540,13 +1519,13 @@
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="9" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="9"/>
@@ -1570,13 +1549,13 @@
     <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
       <c r="B17" s="9" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="9"/>
@@ -1587,13 +1566,13 @@
     <row r="18" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="9" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E18" s="11"/>
       <c r="F18" s="9"/>
@@ -1604,13 +1583,13 @@
     <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="9" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E19" s="11"/>
       <c r="F19" s="9"/>
@@ -1634,19 +1613,19 @@
     <row r="21" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="9" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="G21" s="9">
         <v>3</v>
@@ -1657,19 +1636,19 @@
     <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="B22" s="9" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="G22" s="9">
         <v>3</v>
@@ -1693,19 +1672,19 @@
     <row r="24" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
       <c r="B24" s="9" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="G24" s="9">
         <v>3</v>
@@ -1716,19 +1695,19 @@
     <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
       <c r="B25" s="9" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="G25" s="9">
         <v>3</v>
@@ -1752,19 +1731,19 @@
     <row r="27" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" s="9" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="G27" s="9">
         <v>1</v>
@@ -1775,19 +1754,19 @@
     <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="B28" s="9" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D28" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E28" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="E28" s="9" t="s">
-        <v>143</v>
-      </c>
       <c r="F28" s="9" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="G28" s="9">
         <v>1</v>
@@ -1797,7 +1776,7 @@
     </row>
     <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B29" s="9"/>
       <c r="C29" s="10"/>
@@ -1811,19 +1790,19 @@
     <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
       <c r="B30" s="9" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="G30" s="9">
         <v>1</v>
@@ -1833,7 +1812,7 @@
     </row>
     <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B31" s="9"/>
       <c r="C31" s="10"/>
@@ -1847,19 +1826,19 @@
     <row r="32" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" s="9" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="G32" s="9">
         <v>2</v>
@@ -1870,13 +1849,13 @@
     <row r="33" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
       <c r="B33" s="9" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
@@ -1887,13 +1866,13 @@
     <row r="34" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
       <c r="B34" s="9" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>97</v>
+        <v>251</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
@@ -1901,16 +1880,16 @@
       <c r="H34" s="9"/>
       <c r="I34" s="3"/>
     </row>
-    <row r="35" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
       <c r="B35" s="9" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>98</v>
+        <v>252</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
@@ -1919,28 +1898,32 @@
       <c r="I35" s="3"/>
     </row>
     <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="9"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>126</v>
+      </c>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
       <c r="I36" s="3"/>
     </row>
-    <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
       <c r="B37" s="9" t="s">
-        <v>187</v>
+        <v>248</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>44</v>
+        <v>255</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
@@ -1948,181 +1931,185 @@
       <c r="H37" s="9"/>
       <c r="I37" s="3"/>
     </row>
-    <row r="38" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="9"/>
+    <row r="38" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="9"/>
+      <c r="B38" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>126</v>
+      </c>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
       <c r="I38" s="3"/>
     </row>
-    <row r="39" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
       <c r="B39" s="9" t="s">
-        <v>188</v>
+        <v>250</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="G39" s="9">
-        <v>3</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
       <c r="H39" s="9"/>
       <c r="I39" s="3"/>
     </row>
-    <row r="40" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="G40" s="9">
-        <v>3</v>
-      </c>
+    <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="9"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
       <c r="H40" s="9"/>
       <c r="I40" s="3"/>
     </row>
-    <row r="41" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="9"/>
       <c r="B41" s="9" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="G41" s="9">
-        <v>3</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
       <c r="H41" s="9"/>
       <c r="I41" s="3"/>
     </row>
-    <row r="42" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="9"/>
-      <c r="B42" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="G42" s="9">
-        <v>3</v>
-      </c>
+    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" s="9"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
       <c r="H42" s="9"/>
       <c r="I42" s="3"/>
     </row>
-    <row r="43" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="9"/>
       <c r="B43" s="9" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="D43" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
+        <v>92</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="G43" s="9">
+        <v>3</v>
+      </c>
       <c r="H43" s="9"/>
       <c r="I43" s="3"/>
     </row>
-    <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
+    <row r="44" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="9"/>
+      <c r="B44" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="G44" s="9">
+        <v>3</v>
+      </c>
       <c r="H44" s="9"/>
       <c r="I44" s="3"/>
     </row>
     <row r="45" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A45" s="9"/>
       <c r="B45" s="9" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
+        <v>95</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="G45" s="9">
+        <v>3</v>
+      </c>
       <c r="H45" s="9"/>
       <c r="I45" s="3"/>
     </row>
-    <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B46" s="9"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
+    <row r="46" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="9"/>
+      <c r="B46" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="G46" s="9">
+        <v>3</v>
+      </c>
       <c r="H46" s="9"/>
       <c r="I46" s="3"/>
     </row>
     <row r="47" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A47" s="9"/>
       <c r="B47" s="9" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D47" s="12" t="s">
-        <v>134</v>
+        <v>96</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>139</v>
       </c>
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
@@ -2130,17 +2117,13 @@
       <c r="H47" s="9"/>
       <c r="I47" s="3"/>
     </row>
-    <row r="48" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="9"/>
-      <c r="B48" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D48" s="12" t="s">
-        <v>134</v>
-      </c>
+    <row r="48" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" s="9"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="9"/>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
@@ -2150,13 +2133,13 @@
     <row r="49" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A49" s="9"/>
       <c r="B49" s="9" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
@@ -2164,46 +2147,46 @@
       <c r="H49" s="9"/>
       <c r="I49" s="3"/>
     </row>
-    <row r="50" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="9"/>
-      <c r="B50" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D50" s="12" t="s">
-        <v>134</v>
-      </c>
+    <row r="50" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" s="9"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="9"/>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
       <c r="H50" s="9"/>
       <c r="I50" s="3"/>
     </row>
-    <row r="51" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B51" s="16"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="9"/>
+    <row r="51" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A51" s="9"/>
+      <c r="B51" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>126</v>
+      </c>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
       <c r="H51" s="9"/>
       <c r="I51" s="3"/>
     </row>
-    <row r="52" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A52" s="9"/>
       <c r="B52" s="9" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
@@ -2214,13 +2197,13 @@
     <row r="53" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A53" s="9"/>
       <c r="B53" s="9" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
@@ -2228,30 +2211,30 @@
       <c r="H53" s="9"/>
       <c r="I53" s="3"/>
     </row>
-    <row r="54" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B54" s="9"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="9"/>
+    <row r="54" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A54" s="9"/>
+      <c r="B54" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>126</v>
+      </c>
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
       <c r="G54" s="9"/>
       <c r="H54" s="9"/>
       <c r="I54" s="3"/>
     </row>
-    <row r="55" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="9"/>
-      <c r="B55" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D55" s="12" t="s">
-        <v>134</v>
-      </c>
+    <row r="55" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B55" s="16"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="9"/>
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
@@ -2261,13 +2244,13 @@
     <row r="56" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="9"/>
       <c r="B56" s="9" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>104</v>
+        <v>51</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
@@ -2275,16 +2258,16 @@
       <c r="H56" s="9"/>
       <c r="I56" s="3"/>
     </row>
-    <row r="57" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A57" s="9"/>
       <c r="B57" s="9" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
@@ -2294,7 +2277,7 @@
     </row>
     <row r="58" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B58" s="9"/>
       <c r="C58" s="10"/>
@@ -2308,13 +2291,13 @@
     <row r="59" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A59" s="9"/>
       <c r="B59" s="9" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
@@ -2322,16 +2305,16 @@
       <c r="H59" s="9"/>
       <c r="I59" s="3"/>
     </row>
-    <row r="60" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A60" s="9"/>
       <c r="B60" s="9" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>148</v>
+        <v>54</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
@@ -2340,45 +2323,45 @@
       <c r="I60" s="3"/>
     </row>
     <row r="61" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="9"/>
-      <c r="B61" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D61" s="12" t="s">
-        <v>134</v>
-      </c>
+      <c r="A61" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B61" s="9"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="9"/>
       <c r="E61" s="9"/>
       <c r="F61" s="9"/>
       <c r="G61" s="9"/>
       <c r="H61" s="9"/>
       <c r="I61" s="3"/>
     </row>
-    <row r="62" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B62" s="9"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="9"/>
+    <row r="62" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A62" s="9"/>
+      <c r="B62" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>126</v>
+      </c>
       <c r="E62" s="9"/>
       <c r="F62" s="9"/>
       <c r="G62" s="9"/>
       <c r="H62" s="9"/>
       <c r="I62" s="3"/>
     </row>
-    <row r="63" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="9"/>
       <c r="B63" s="9" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E63" s="9"/>
       <c r="F63" s="9"/>
@@ -2386,46 +2369,46 @@
       <c r="H63" s="9"/>
       <c r="I63" s="3"/>
     </row>
-    <row r="64" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="9"/>
-      <c r="B64" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D64" s="12" t="s">
-        <v>134</v>
-      </c>
+    <row r="64" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B64" s="9"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="9"/>
       <c r="E64" s="9"/>
       <c r="F64" s="9"/>
       <c r="G64" s="9"/>
       <c r="H64" s="9"/>
       <c r="I64" s="3"/>
     </row>
-    <row r="65" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B65" s="9"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="9"/>
+    <row r="65" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A65" s="9"/>
+      <c r="B65" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D65" s="15" t="s">
+        <v>139</v>
+      </c>
       <c r="E65" s="9"/>
       <c r="F65" s="9"/>
       <c r="G65" s="9"/>
       <c r="H65" s="9"/>
       <c r="I65" s="3"/>
     </row>
-    <row r="66" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="9"/>
       <c r="B66" s="9" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D66" s="12" t="s">
-        <v>134</v>
+        <v>58</v>
+      </c>
+      <c r="D66" s="15" t="s">
+        <v>139</v>
       </c>
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
@@ -2436,13 +2419,13 @@
     <row r="67" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="9"/>
       <c r="B67" s="9" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D67" s="12" t="s">
-        <v>134</v>
+        <v>59</v>
+      </c>
+      <c r="D67" s="15" t="s">
+        <v>139</v>
       </c>
       <c r="E67" s="9"/>
       <c r="F67" s="9"/>
@@ -2451,28 +2434,32 @@
       <c r="I67" s="3"/>
     </row>
     <row r="68" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B68" s="9"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="9"/>
+      <c r="A68" s="18"/>
+      <c r="B68" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D68" s="15" t="s">
+        <v>139</v>
+      </c>
       <c r="E68" s="9"/>
       <c r="F68" s="9"/>
       <c r="G68" s="9"/>
       <c r="H68" s="9"/>
       <c r="I68" s="3"/>
     </row>
-    <row r="69" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="9"/>
+    <row r="69" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="18"/>
       <c r="B69" s="9" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E69" s="9"/>
       <c r="F69" s="9"/>
@@ -2481,32 +2468,28 @@
       <c r="I69" s="3"/>
     </row>
     <row r="70" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="9"/>
-      <c r="B70" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D70" s="15" t="s">
-        <v>147</v>
-      </c>
+      <c r="A70" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B70" s="9"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="9"/>
       <c r="E70" s="9"/>
       <c r="F70" s="9"/>
       <c r="G70" s="9"/>
       <c r="H70" s="9"/>
       <c r="I70" s="3"/>
     </row>
-    <row r="71" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A71" s="9"/>
       <c r="B71" s="9" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E71" s="9"/>
       <c r="F71" s="9"/>
@@ -2515,15 +2498,15 @@
       <c r="I71" s="3"/>
     </row>
     <row r="72" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="18"/>
+      <c r="A72" s="9"/>
       <c r="B72" s="9" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E72" s="9"/>
       <c r="F72" s="9"/>
@@ -2532,15 +2515,15 @@
       <c r="I72" s="3"/>
     </row>
     <row r="73" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="18"/>
+      <c r="A73" s="9"/>
       <c r="B73" s="9" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E73" s="9"/>
       <c r="F73" s="9"/>
@@ -2549,28 +2532,32 @@
       <c r="I73" s="3"/>
     </row>
     <row r="74" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B74" s="9"/>
-      <c r="C74" s="10"/>
-      <c r="D74" s="9"/>
+      <c r="A74" s="9"/>
+      <c r="B74" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D74" s="15" t="s">
+        <v>139</v>
+      </c>
       <c r="E74" s="9"/>
       <c r="F74" s="9"/>
       <c r="G74" s="9"/>
       <c r="H74" s="9"/>
       <c r="I74" s="3"/>
     </row>
-    <row r="75" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="9"/>
       <c r="B75" s="9" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E75" s="9"/>
       <c r="F75" s="9"/>
@@ -2581,13 +2568,13 @@
     <row r="76" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="9"/>
       <c r="B76" s="9" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="C76" s="10" t="s">
         <v>64</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E76" s="9"/>
       <c r="F76" s="9"/>
@@ -2598,13 +2585,13 @@
     <row r="77" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="9"/>
       <c r="B77" s="9" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="C77" s="10" t="s">
         <v>65</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E77" s="9"/>
       <c r="F77" s="9"/>
@@ -2615,81 +2602,77 @@
     <row r="78" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="9"/>
       <c r="B78" s="9" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="C78" s="10" t="s">
         <v>66</v>
       </c>
       <c r="D78" s="15" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E78" s="9"/>
       <c r="F78" s="9"/>
       <c r="G78" s="9"/>
       <c r="H78" s="9"/>
-      <c r="I78" s="3"/>
+      <c r="I78" s="1"/>
     </row>
     <row r="79" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="9"/>
       <c r="B79" s="9" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D79" s="15" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E79" s="9"/>
       <c r="F79" s="9"/>
       <c r="G79" s="9"/>
       <c r="H79" s="9"/>
-      <c r="I79" s="3"/>
+      <c r="I79" s="1"/>
     </row>
     <row r="80" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="9"/>
       <c r="B80" s="9" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E80" s="9"/>
       <c r="F80" s="9"/>
       <c r="G80" s="9"/>
       <c r="H80" s="9"/>
-      <c r="I80" s="3"/>
+      <c r="I80" s="1"/>
     </row>
     <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="9"/>
-      <c r="B81" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="C81" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D81" s="15" t="s">
-        <v>147</v>
-      </c>
+      <c r="A81" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B81" s="9"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="9"/>
       <c r="E81" s="9"/>
       <c r="F81" s="9"/>
       <c r="G81" s="9"/>
       <c r="H81" s="9"/>
-      <c r="I81" s="3"/>
-    </row>
-    <row r="82" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I81" s="1"/>
+    </row>
+    <row r="82" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A82" s="9"/>
       <c r="B82" s="9" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="D82" s="15" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E82" s="9"/>
       <c r="F82" s="9"/>
@@ -2697,16 +2680,16 @@
       <c r="H82" s="9"/>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A83" s="9"/>
       <c r="B83" s="9" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="D83" s="15" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E83" s="9"/>
       <c r="F83" s="9"/>
@@ -2714,16 +2697,16 @@
       <c r="H83" s="9"/>
       <c r="I83" s="1"/>
     </row>
-    <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A84" s="9"/>
       <c r="B84" s="9" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="D84" s="15" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E84" s="9"/>
       <c r="F84" s="9"/>
@@ -2733,7 +2716,7 @@
     </row>
     <row r="85" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B85" s="9"/>
       <c r="C85" s="10"/>
@@ -2744,16 +2727,16 @@
       <c r="H85" s="9"/>
       <c r="I85" s="1"/>
     </row>
-    <row r="86" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="9"/>
       <c r="B86" s="9" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="D86" s="15" t="s">
-        <v>147</v>
+        <v>69</v>
+      </c>
+      <c r="D86" s="12" t="s">
+        <v>126</v>
       </c>
       <c r="E86" s="9"/>
       <c r="F86" s="9"/>
@@ -2764,13 +2747,13 @@
     <row r="87" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A87" s="9"/>
       <c r="B87" s="9" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="D87" s="15" t="s">
-        <v>147</v>
+        <v>70</v>
+      </c>
+      <c r="D87" s="12" t="s">
+        <v>126</v>
       </c>
       <c r="E87" s="9"/>
       <c r="F87" s="9"/>
@@ -2781,13 +2764,13 @@
     <row r="88" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A88" s="9"/>
       <c r="B88" s="9" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="D88" s="15" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E88" s="9"/>
       <c r="F88" s="9"/>
@@ -2797,7 +2780,7 @@
     </row>
     <row r="89" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B89" s="9"/>
       <c r="C89" s="10"/>
@@ -2808,16 +2791,16 @@
       <c r="H89" s="9"/>
       <c r="I89" s="1"/>
     </row>
-    <row r="90" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A90" s="9"/>
       <c r="B90" s="9" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D90" s="12" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E90" s="9"/>
       <c r="F90" s="9"/>
@@ -2828,13 +2811,13 @@
     <row r="91" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A91" s="9"/>
       <c r="B91" s="9" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D91" s="12" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E91" s="9"/>
       <c r="F91" s="9"/>
@@ -2845,13 +2828,13 @@
     <row r="92" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A92" s="9"/>
       <c r="B92" s="9" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D92" s="15" t="s">
-        <v>147</v>
+        <v>74</v>
+      </c>
+      <c r="D92" s="12" t="s">
+        <v>126</v>
       </c>
       <c r="E92" s="9"/>
       <c r="F92" s="9"/>
@@ -2860,47 +2843,47 @@
       <c r="I92" s="1"/>
     </row>
     <row r="93" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B93" s="9"/>
-      <c r="C93" s="10"/>
-      <c r="D93" s="9"/>
+      <c r="A93" s="9"/>
+      <c r="B93" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D93" s="12" t="s">
+        <v>126</v>
+      </c>
       <c r="E93" s="9"/>
       <c r="F93" s="9"/>
       <c r="G93" s="9"/>
       <c r="H93" s="9"/>
       <c r="I93" s="1"/>
     </row>
-    <row r="94" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A94" s="9"/>
-      <c r="B94" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="C94" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D94" s="12" t="s">
-        <v>134</v>
-      </c>
+    <row r="94" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A94" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B94" s="9"/>
+      <c r="C94" s="10"/>
+      <c r="D94" s="12"/>
       <c r="E94" s="9"/>
       <c r="F94" s="9"/>
       <c r="G94" s="9"/>
       <c r="H94" s="9"/>
       <c r="I94" s="1"/>
     </row>
-    <row r="95" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="9"/>
       <c r="B95" s="9" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D95" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="E95" s="9"/>
+        <v>126</v>
+      </c>
+      <c r="E95" s="19"/>
       <c r="F95" s="9"/>
       <c r="G95" s="9"/>
       <c r="H95" s="9"/>
@@ -2909,13 +2892,13 @@
     <row r="96" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A96" s="9"/>
       <c r="B96" s="9" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D96" s="12" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E96" s="9"/>
       <c r="F96" s="9"/>
@@ -2923,48 +2906,58 @@
       <c r="H96" s="9"/>
       <c r="I96" s="1"/>
     </row>
-    <row r="97" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A97" s="9"/>
       <c r="B97" s="9" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D97" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="E97" s="9"/>
-      <c r="F97" s="9"/>
-      <c r="G97" s="9"/>
+        <v>78</v>
+      </c>
+      <c r="D97" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E97" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="F97" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="G97" s="9">
+        <v>2</v>
+      </c>
       <c r="H97" s="9"/>
       <c r="I97" s="1"/>
     </row>
-    <row r="98" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B98" s="9"/>
-      <c r="C98" s="10"/>
-      <c r="D98" s="12"/>
+    <row r="98" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A98" s="9"/>
+      <c r="B98" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D98" s="12" t="s">
+        <v>126</v>
+      </c>
       <c r="E98" s="9"/>
       <c r="F98" s="9"/>
       <c r="G98" s="9"/>
       <c r="H98" s="9"/>
       <c r="I98" s="1"/>
     </row>
-    <row r="99" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A99" s="9"/>
       <c r="B99" s="9" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D99" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="E99" s="19"/>
+        <v>126</v>
+      </c>
+      <c r="E99" s="9"/>
       <c r="F99" s="9"/>
       <c r="G99" s="9"/>
       <c r="H99" s="9"/>
@@ -2973,54 +2966,50 @@
     <row r="100" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A100" s="9"/>
       <c r="B100" s="9" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D100" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="E100" s="9"/>
-      <c r="F100" s="9"/>
-      <c r="G100" s="9"/>
+        <v>81</v>
+      </c>
+      <c r="D100" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E100" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F100" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="G100" s="9">
+        <v>2</v>
+      </c>
       <c r="H100" s="9"/>
       <c r="I100" s="1"/>
     </row>
-    <row r="101" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="9"/>
       <c r="B101" s="9" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D101" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="E101" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="F101" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="G101" s="9">
-        <v>2</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="D101" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="E101" s="9"/>
+      <c r="F101" s="9"/>
+      <c r="G101" s="9"/>
       <c r="H101" s="9"/>
       <c r="I101" s="1"/>
     </row>
-    <row r="102" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A102" s="9"/>
-      <c r="B102" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="C102" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D102" s="12" t="s">
-        <v>134</v>
-      </c>
+    <row r="102" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A102" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B102" s="9"/>
+      <c r="C102" s="10"/>
+      <c r="D102" s="9"/>
       <c r="E102" s="9"/>
       <c r="F102" s="9"/>
       <c r="G102" s="9"/>
@@ -3030,13 +3019,13 @@
     <row r="103" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A103" s="9"/>
       <c r="B103" s="9" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D103" s="12" t="s">
-        <v>134</v>
+        <v>82</v>
+      </c>
+      <c r="D103" s="15" t="s">
+        <v>139</v>
       </c>
       <c r="E103" s="9"/>
       <c r="F103" s="9"/>
@@ -3044,39 +3033,29 @@
       <c r="H103" s="9"/>
       <c r="I103" s="1"/>
     </row>
-    <row r="104" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A104" s="9"/>
-      <c r="B104" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="C104" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D104" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="E104" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="F104" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="G104" s="9">
-        <v>2</v>
-      </c>
+    <row r="104" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A104" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B104" s="9"/>
+      <c r="C104" s="10"/>
+      <c r="D104" s="15"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="9"/>
+      <c r="G104" s="9"/>
       <c r="H104" s="9"/>
       <c r="I104" s="1"/>
     </row>
     <row r="105" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="9"/>
       <c r="B105" s="9" t="s">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D105" s="15" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E105" s="9"/>
       <c r="F105" s="9"/>
@@ -3084,29 +3063,33 @@
       <c r="H105" s="9"/>
       <c r="I105" s="1"/>
     </row>
-    <row r="106" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B106" s="9"/>
-      <c r="C106" s="10"/>
-      <c r="D106" s="9"/>
+    <row r="106" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A106" s="9"/>
+      <c r="B106" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="C106" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D106" s="15" t="s">
+        <v>139</v>
+      </c>
       <c r="E106" s="9"/>
       <c r="F106" s="9"/>
       <c r="G106" s="9"/>
       <c r="H106" s="9"/>
       <c r="I106" s="1"/>
     </row>
-    <row r="107" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="9"/>
       <c r="B107" s="9" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D107" s="15" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E107" s="9"/>
       <c r="F107" s="9"/>
@@ -3115,12 +3098,16 @@
       <c r="I107" s="1"/>
     </row>
     <row r="108" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A108" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B108" s="9"/>
-      <c r="C108" s="10"/>
-      <c r="D108" s="15"/>
+      <c r="A108" s="9"/>
+      <c r="B108" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="C108" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D108" s="15" t="s">
+        <v>139</v>
+      </c>
       <c r="E108" s="9"/>
       <c r="F108" s="9"/>
       <c r="G108" s="9"/>
@@ -3128,16 +3115,12 @@
       <c r="I108" s="1"/>
     </row>
     <row r="109" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="9"/>
-      <c r="B109" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="C109" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D109" s="15" t="s">
-        <v>147</v>
-      </c>
+      <c r="A109" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B109" s="9"/>
+      <c r="C109" s="10"/>
+      <c r="D109" s="9"/>
       <c r="E109" s="9"/>
       <c r="F109" s="9"/>
       <c r="G109" s="9"/>
@@ -3147,13 +3130,13 @@
     <row r="110" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A110" s="9"/>
       <c r="B110" s="9" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D110" s="15" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E110" s="9"/>
       <c r="F110" s="9"/>
@@ -3162,32 +3145,28 @@
       <c r="I110" s="1"/>
     </row>
     <row r="111" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="9"/>
-      <c r="B111" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="C111" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D111" s="15" t="s">
-        <v>147</v>
-      </c>
+      <c r="A111" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B111" s="9"/>
+      <c r="C111" s="10"/>
+      <c r="D111" s="9"/>
       <c r="E111" s="9"/>
       <c r="F111" s="9"/>
       <c r="G111" s="9"/>
       <c r="H111" s="9"/>
       <c r="I111" s="1"/>
     </row>
-    <row r="112" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A112" s="9"/>
       <c r="B112" s="9" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D112" s="15" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E112" s="9"/>
       <c r="F112" s="9"/>
@@ -3196,12 +3175,16 @@
       <c r="I112" s="1"/>
     </row>
     <row r="113" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A113" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B113" s="9"/>
-      <c r="C113" s="10"/>
-      <c r="D113" s="9"/>
+      <c r="A113" s="9"/>
+      <c r="B113" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="C113" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D113" s="15" t="s">
+        <v>139</v>
+      </c>
       <c r="E113" s="9"/>
       <c r="F113" s="9"/>
       <c r="G113" s="9"/>
@@ -3211,13 +3194,13 @@
     <row r="114" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A114" s="9"/>
       <c r="B114" s="9" t="s">
-        <v>247</v>
+        <v>219</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D114" s="15" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E114" s="9"/>
       <c r="F114" s="9"/>
@@ -3227,7 +3210,7 @@
     </row>
     <row r="115" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="9" t="s">
-        <v>29</v>
+        <v>142</v>
       </c>
       <c r="B115" s="9"/>
       <c r="C115" s="10"/>
@@ -3236,187 +3219,124 @@
       <c r="F115" s="9"/>
       <c r="G115" s="9"/>
       <c r="H115" s="9"/>
-      <c r="I115" s="1"/>
+      <c r="I115" s="5"/>
     </row>
     <row r="116" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A116" s="9"/>
       <c r="B116" s="9" t="s">
-        <v>248</v>
+        <v>220</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>94</v>
+        <v>143</v>
       </c>
       <c r="D116" s="15" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E116" s="9"/>
       <c r="F116" s="9"/>
       <c r="G116" s="9"/>
       <c r="H116" s="9"/>
-      <c r="I116" s="1"/>
-    </row>
-    <row r="117" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I116" s="5"/>
+    </row>
+    <row r="117" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A117" s="9"/>
       <c r="B117" s="9" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>95</v>
+        <v>144</v>
       </c>
       <c r="D117" s="15" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E117" s="9"/>
       <c r="F117" s="9"/>
       <c r="G117" s="9"/>
       <c r="H117" s="9"/>
-      <c r="I117" s="1"/>
+      <c r="I117" s="5"/>
     </row>
     <row r="118" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A118" s="9"/>
       <c r="B118" s="9" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>96</v>
+        <v>152</v>
       </c>
       <c r="D118" s="15" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E118" s="9"/>
       <c r="F118" s="9"/>
       <c r="G118" s="9"/>
       <c r="H118" s="9"/>
-      <c r="I118" s="1"/>
+      <c r="I118" s="5"/>
     </row>
     <row r="119" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A119" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="B119" s="9"/>
-      <c r="C119" s="10"/>
-      <c r="D119" s="9"/>
+      <c r="A119" s="9"/>
+      <c r="B119" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="C119" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="D119" s="15" t="s">
+        <v>139</v>
+      </c>
       <c r="E119" s="9"/>
       <c r="F119" s="9"/>
       <c r="G119" s="9"/>
       <c r="H119" s="9"/>
       <c r="I119" s="5"/>
     </row>
-    <row r="120" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="9"/>
-      <c r="B120" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="C120" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="D120" s="15" t="s">
-        <v>147</v>
-      </c>
+    <row r="120" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A120" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="B120" s="9"/>
+      <c r="C120" s="10"/>
+      <c r="D120" s="11"/>
       <c r="E120" s="9"/>
       <c r="F120" s="9"/>
       <c r="G120" s="9"/>
       <c r="H120" s="9"/>
       <c r="I120" s="5"/>
     </row>
-    <row r="121" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A121" s="9"/>
+    <row r="121" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A121" s="21"/>
       <c r="B121" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="C121" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="D121" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="E121" s="9"/>
-      <c r="F121" s="9"/>
-      <c r="G121" s="9"/>
-      <c r="H121" s="9"/>
-      <c r="I121" s="5"/>
+        <v>221</v>
+      </c>
+      <c r="C121" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="D121" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="E121" s="21"/>
+      <c r="F121" s="21"/>
+      <c r="G121" s="21"/>
+      <c r="H121" s="21"/>
+      <c r="I121" s="21"/>
     </row>
     <row r="122" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A122" s="9"/>
+      <c r="A122" s="21"/>
       <c r="B122" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="C122" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="D122" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="E122" s="9"/>
-      <c r="F122" s="9"/>
-      <c r="G122" s="9"/>
-      <c r="H122" s="9"/>
-      <c r="I122" s="5"/>
-    </row>
-    <row r="123" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A123" s="9"/>
-      <c r="B123" s="20" t="s">
-        <v>254</v>
-      </c>
-      <c r="C123" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="D123" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="E123" s="9"/>
-      <c r="F123" s="9"/>
-      <c r="G123" s="9"/>
-      <c r="H123" s="9"/>
-      <c r="I123" s="5"/>
-    </row>
-    <row r="124" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A124" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="B124" s="9"/>
-      <c r="C124" s="10"/>
-      <c r="D124" s="11"/>
-      <c r="E124" s="9"/>
-      <c r="F124" s="9"/>
-      <c r="G124" s="9"/>
-      <c r="H124" s="9"/>
-      <c r="I124" s="5"/>
-    </row>
-    <row r="125" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A125" s="22"/>
-      <c r="B125" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="C125" s="23" t="s">
-        <v>260</v>
-      </c>
-      <c r="D125" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="E125" s="22"/>
-      <c r="F125" s="22"/>
-      <c r="G125" s="22"/>
-      <c r="H125" s="22"/>
-      <c r="I125" s="22"/>
-    </row>
-    <row r="126" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A126" s="22"/>
-      <c r="B126" s="22" t="s">
-        <v>259</v>
-      </c>
-      <c r="C126" s="23" t="s">
-        <v>261</v>
-      </c>
-      <c r="D126" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="E126" s="22"/>
-      <c r="F126" s="22"/>
-      <c r="G126" s="22"/>
-      <c r="H126" s="22"/>
-      <c r="I126" s="22"/>
-    </row>
+        <v>222</v>
+      </c>
+      <c r="C122" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="D122" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="E122" s="21"/>
+      <c r="F122" s="21"/>
+      <c r="G122" s="21"/>
+      <c r="H122" s="21"/>
+      <c r="I122" s="21"/>
+    </row>
+    <row r="124" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3451,15 +3371,15 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="5"/>
@@ -3469,7 +3389,7 @@
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="7" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -3478,7 +3398,7 @@
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="7" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -3487,7 +3407,7 @@
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="7" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -3495,7 +3415,7 @@
     </row>
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="5"/>
@@ -3505,7 +3425,7 @@
     <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="7" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -3514,7 +3434,7 @@
     <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="7" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -3522,7 +3442,7 @@
     </row>
     <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="5"/>
@@ -3532,7 +3452,7 @@
     <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="7" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -3541,7 +3461,7 @@
     <row r="11" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="7" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -3549,7 +3469,7 @@
     </row>
     <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="5"/>
@@ -3559,7 +3479,7 @@
     <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="7" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -3568,7 +3488,7 @@
     <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="7" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -3576,7 +3496,7 @@
     </row>
     <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="5"/>
@@ -3586,7 +3506,7 @@
     <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="7" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -3595,7 +3515,7 @@
     <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="7" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -3604,7 +3524,7 @@
     <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="7" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -3612,7 +3532,7 @@
     </row>
     <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="5"/>
@@ -3622,7 +3542,7 @@
     <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="7" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -3631,7 +3551,7 @@
     <row r="21" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="7" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -3640,7 +3560,7 @@
     <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="7" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -3648,7 +3568,7 @@
     </row>
     <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="5"/>
@@ -3658,7 +3578,7 @@
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="7" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -3667,7 +3587,7 @@
     <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="7" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -3675,7 +3595,7 @@
     </row>
     <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="5"/>
@@ -3685,7 +3605,7 @@
     <row r="27" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="7" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -3694,7 +3614,7 @@
     <row r="28" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="7" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
